--- a/track/track.xlsx
+++ b/track/track.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/831b87cc3fd9cdb8/Documents/GitHub/durgachikkala.github.io/track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC10487CB95F4AD45ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62B12595-342F-43CC-84F3-A1AF0266B0C9}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC10487CB95F4AD45ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA8F5925-32BF-4FF7-86C8-FA6952BFFF79}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -42,18 +42,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Reddy </t>
-  </si>
-  <si>
-    <t>Kamalatha</t>
-  </si>
-  <si>
-    <t>Jaya</t>
-  </si>
-  <si>
-    <t>Durga</t>
-  </si>
-  <si>
     <t>Things Scheduled</t>
   </si>
   <si>
@@ -61,30 +49,6 @@
   </si>
   <si>
     <t>Things pending</t>
-  </si>
-  <si>
-    <t>Html full revision</t>
-  </si>
-  <si>
-    <t>css full</t>
-  </si>
-  <si>
-    <t>Sass beginning</t>
-  </si>
-  <si>
-    <t>practicing using sass</t>
-  </si>
-  <si>
-    <t>Completing Sass</t>
-  </si>
-  <si>
-    <t>Javascript Module 1</t>
-  </si>
-  <si>
-    <t>Javascript Module 2</t>
-  </si>
-  <si>
-    <t>Javascript Module 3</t>
   </si>
 </sst>
 </file>
@@ -429,7 +393,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,369 +422,145 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>44480</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>44480</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>44480</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>44480</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>44481</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>44481</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>44481</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>44481</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>44482</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>44482</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>44482</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>44482</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>44483</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>44483</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>44483</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>44483</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>44485</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44485</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>44485</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44485</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44486</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44486</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>44486</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44486</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44487</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44487</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44487</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>44487</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>44488</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>44488</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>44488</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>44488</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="E33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
